--- a/TestingDocumentation/DataInputCoverage.xlsx
+++ b/TestingDocumentation/DataInputCoverage.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1716b536e789c12/Documents/CSE5915/Team-Arcane-CLV/TestingDocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC104871999A4E9E5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDEA2DF0-F613-411F-B451-F9B044507AB9}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC104871999A4E9E5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793024A3-674C-4216-A313-38AFC40E5A84}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="4215" windowWidth="18570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="1920" windowWidth="18570" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Test Case</t>
   </si>
@@ -40,6 +41,72 @@
   </si>
   <si>
     <t>Test The minimum 20 valid data points</t>
+  </si>
+  <si>
+    <t>income_1_avg</t>
+  </si>
+  <si>
+    <t>income_2_avg</t>
+  </si>
+  <si>
+    <t>networth_1_avg</t>
+  </si>
+  <si>
+    <t>networth_2_avg</t>
+  </si>
+  <si>
+    <t>hshold_lifestage_last</t>
+  </si>
+  <si>
+    <t>newid_trips</t>
+  </si>
+  <si>
+    <t>trip_ids</t>
+  </si>
+  <si>
+    <t>trip_seq_nb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bkng_dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arvl_dt </t>
+  </si>
+  <si>
+    <t>nght_cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prev_dprt_dt </t>
+  </si>
+  <si>
+    <t>tot_amt</t>
+  </si>
+  <si>
+    <t>gst_cnt_sum</t>
+  </si>
+  <si>
+    <t>gst_jnr</t>
+  </si>
+  <si>
+    <t>gst_chld</t>
+  </si>
+  <si>
+    <t>gst_ifnt</t>
+  </si>
+  <si>
+    <t>TEEN</t>
+  </si>
+  <si>
+    <t>YOUNG ADULTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NULL </t>
+  </si>
+  <si>
+    <t>ADULTS</t>
+  </si>
+  <si>
+    <t>TWEEN</t>
   </si>
 </sst>
 </file>
@@ -75,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +458,1132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B8CDFA-BB55-4D49-B2C4-1C9B58203758}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>27500</v>
+      </c>
+      <c r="B2">
+        <v>25000</v>
+      </c>
+      <c r="C2">
+        <v>62500</v>
+      </c>
+      <c r="D2">
+        <v>250000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>500302100</v>
+      </c>
+      <c r="G2">
+        <v>79690927</v>
+      </c>
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43469.79</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43706.83</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43546.83</v>
+      </c>
+      <c r="M2">
+        <v>517.63751779999996</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27500</v>
+      </c>
+      <c r="B3">
+        <v>25000</v>
+      </c>
+      <c r="C3">
+        <v>62500</v>
+      </c>
+      <c r="D3">
+        <v>250000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>500302100</v>
+      </c>
+      <c r="G3">
+        <v>79785204</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43527.79</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43542.83</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43508.79</v>
+      </c>
+      <c r="M3">
+        <v>618.52096840000002</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15000</v>
+      </c>
+      <c r="B4">
+        <v>31250</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>12500</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>500386933</v>
+      </c>
+      <c r="G4">
+        <v>68301257</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40908.79</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40908.79</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>381.52040199999999</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15000</v>
+      </c>
+      <c r="B5">
+        <v>31250</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5">
+        <v>12500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>500386933</v>
+      </c>
+      <c r="G5">
+        <v>78116821</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43136.79</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43435.79</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>40911.79</v>
+      </c>
+      <c r="M5">
+        <v>142.04476450000001</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25000</v>
+      </c>
+      <c r="B6">
+        <v>18750</v>
+      </c>
+      <c r="C6">
+        <v>25000</v>
+      </c>
+      <c r="D6">
+        <v>125000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>500387394</v>
+      </c>
+      <c r="G6">
+        <v>68301099</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40908.79</v>
+      </c>
+      <c r="J6" s="1">
+        <v>41054.83</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>40899.79</v>
+      </c>
+      <c r="M6">
+        <v>178.93024120000001</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25000</v>
+      </c>
+      <c r="B7">
+        <v>18750</v>
+      </c>
+      <c r="C7">
+        <v>25000</v>
+      </c>
+      <c r="D7">
+        <v>125000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>500387394</v>
+      </c>
+      <c r="G7">
+        <v>71947042</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>41881.83</v>
+      </c>
+      <c r="J7" s="1">
+        <v>42086.83</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>41060.83</v>
+      </c>
+      <c r="M7">
+        <v>321.77183380000002</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25000</v>
+      </c>
+      <c r="B8">
+        <v>18750</v>
+      </c>
+      <c r="C8">
+        <v>25000</v>
+      </c>
+      <c r="D8">
+        <v>125000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>500387394</v>
+      </c>
+      <c r="G8">
+        <v>73443215</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42166.83</v>
+      </c>
+      <c r="J8" s="1">
+        <v>42192.83</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>42089.83</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25000</v>
+      </c>
+      <c r="B9">
+        <v>18750</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>125000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>500387394</v>
+      </c>
+      <c r="G9">
+        <v>73517991</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42211.83</v>
+      </c>
+      <c r="J9" s="1">
+        <v>42289.83</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>42195.83</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25000</v>
+      </c>
+      <c r="B10">
+        <v>18750</v>
+      </c>
+      <c r="C10">
+        <v>25000</v>
+      </c>
+      <c r="D10">
+        <v>125000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>500387394</v>
+      </c>
+      <c r="G10">
+        <v>73560208</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>42238.83</v>
+      </c>
+      <c r="J10" s="1">
+        <v>42451.83</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>42297.83</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25000</v>
+      </c>
+      <c r="B11">
+        <v>18750</v>
+      </c>
+      <c r="C11">
+        <v>25000</v>
+      </c>
+      <c r="D11">
+        <v>125000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>500387394</v>
+      </c>
+      <c r="G11">
+        <v>75334391</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>42694.79</v>
+      </c>
+      <c r="J11" s="1">
+        <v>42905.83</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>42458.83</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25000</v>
+      </c>
+      <c r="B12">
+        <v>18750</v>
+      </c>
+      <c r="C12">
+        <v>25000</v>
+      </c>
+      <c r="D12">
+        <v>125000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>500387394</v>
+      </c>
+      <c r="G12">
+        <v>78106990</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43130.79</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43276.83</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>42913.83</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25000</v>
+      </c>
+      <c r="B13">
+        <v>18750</v>
+      </c>
+      <c r="C13">
+        <v>25000</v>
+      </c>
+      <c r="D13">
+        <v>125000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>500387394</v>
+      </c>
+      <c r="G13">
+        <v>78432177</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43330.83</v>
+      </c>
+      <c r="J13" s="1">
+        <v>43542.83</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1">
+        <v>43424.79</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25000</v>
+      </c>
+      <c r="B14">
+        <v>18750</v>
+      </c>
+      <c r="C14">
+        <v>25000</v>
+      </c>
+      <c r="D14">
+        <v>125000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>500387394</v>
+      </c>
+      <c r="G14">
+        <v>78497332</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43370.83</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43420.79</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>43285.83</v>
+      </c>
+      <c r="M14">
+        <v>639.50683409999999</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>25000</v>
+      </c>
+      <c r="B15">
+        <v>18750</v>
+      </c>
+      <c r="C15">
+        <v>25000</v>
+      </c>
+      <c r="D15">
+        <v>125000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>500387394</v>
+      </c>
+      <c r="G15">
+        <v>79931527</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43617.83</v>
+      </c>
+      <c r="J15" s="1">
+        <v>43831.79</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>43549.83</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18750</v>
+      </c>
+      <c r="B16">
+        <v>3750</v>
+      </c>
+      <c r="C16">
+        <v>62500</v>
+      </c>
+      <c r="D16">
+        <v>500000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>500676561</v>
+      </c>
+      <c r="G16">
+        <v>73568385</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>42232.83</v>
+      </c>
+      <c r="J16" s="1">
+        <v>42469.83</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16" s="1">
+        <v>41243.79</v>
+      </c>
+      <c r="M16">
+        <v>203.9334293</v>
+      </c>
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18750</v>
+      </c>
+      <c r="B17">
+        <v>3750</v>
+      </c>
+      <c r="C17">
+        <v>62500</v>
+      </c>
+      <c r="D17">
+        <v>500000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>500676561</v>
+      </c>
+      <c r="G17">
+        <v>79705531</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>43478.79</v>
+      </c>
+      <c r="J17" s="1">
+        <v>43795.79</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1">
+        <v>42477.83</v>
+      </c>
+      <c r="M17">
+        <v>157.7724231</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20000</v>
+      </c>
+      <c r="B18">
+        <v>31250</v>
+      </c>
+      <c r="C18">
+        <v>25000</v>
+      </c>
+      <c r="D18">
+        <v>125000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>500696623</v>
+      </c>
+      <c r="G18">
+        <v>68746828</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>41182.83</v>
+      </c>
+      <c r="J18" s="1">
+        <v>41235.79</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>36660.83</v>
+      </c>
+      <c r="M18">
+        <v>166.07399050000001</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20000</v>
+      </c>
+      <c r="B19">
+        <v>31250</v>
+      </c>
+      <c r="C19">
+        <v>25000</v>
+      </c>
+      <c r="D19">
+        <v>125000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>500696623</v>
+      </c>
+      <c r="G19">
+        <v>70008727</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>41324.79</v>
+      </c>
+      <c r="J19" s="1">
+        <v>41347.83</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>41237.79</v>
+      </c>
+      <c r="M19">
+        <v>40.488308869999997</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20000</v>
+      </c>
+      <c r="B20">
+        <v>31250</v>
+      </c>
+      <c r="C20">
+        <v>25000</v>
+      </c>
+      <c r="D20">
+        <v>125000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>500696623</v>
+      </c>
+      <c r="G20">
+        <v>70337066</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>41526.83</v>
+      </c>
+      <c r="J20" s="1">
+        <v>41550.83</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>41349.83</v>
+      </c>
+      <c r="M20">
+        <v>67.136322340000007</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>27500</v>
+      </c>
+      <c r="B21">
+        <v>25000</v>
+      </c>
+      <c r="C21">
+        <v>62500</v>
+      </c>
+      <c r="D21">
+        <v>250000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>500302100</v>
+      </c>
+      <c r="G21">
+        <v>71579555</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>41655.79</v>
+      </c>
+      <c r="J21" s="1">
+        <v>41937.83</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>41784.83</v>
+      </c>
+      <c r="M21">
+        <v>183.665685</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>